--- a/resources/fuzzy_rules/nodes.xlsx
+++ b/resources/fuzzy_rules/nodes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9c5dd28f289d0b37/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fande\PycharmProjects\bio_ml_project\resources\fuzzy_rules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="83" documentId="8_{E651B9A0-7F4C-476A-BB4E-0CC81C433E51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E3FE9314-E748-441E-B5A2-4F3F773D56EC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8671F-80BC-4422-A729-07A507A07703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>age</t>
   </si>
@@ -237,6 +237,72 @@
   </si>
   <si>
     <t>nodes_level</t>
+  </si>
+  <si>
+    <t>headache_intensity</t>
+  </si>
+  <si>
+    <t>headache_frequency</t>
+  </si>
+  <si>
+    <t>nausea/vomit_intensity</t>
+  </si>
+  <si>
+    <t>nausea/vomit_frequency</t>
+  </si>
+  <si>
+    <t>joint pains_intensity</t>
+  </si>
+  <si>
+    <t>joint pains_frequency</t>
+  </si>
+  <si>
+    <t>stomachache_intensity</t>
+  </si>
+  <si>
+    <t>stomachache_frequency</t>
+  </si>
+  <si>
+    <t>dizziness_intensity</t>
+  </si>
+  <si>
+    <t>dizziness_frequency</t>
+  </si>
+  <si>
+    <t>tachycardia_intensity</t>
+  </si>
+  <si>
+    <t>tachycardia_frequency</t>
+  </si>
+  <si>
+    <t>blood pressure alteration_intensity</t>
+  </si>
+  <si>
+    <t>blood pressure alteration_frequency</t>
+  </si>
+  <si>
+    <t>diarrhea_intensity</t>
+  </si>
+  <si>
+    <t>diarrhea_frequency</t>
+  </si>
+  <si>
+    <t>constipation_intensity</t>
+  </si>
+  <si>
+    <t>constipation_frequency</t>
+  </si>
+  <si>
+    <t>abdominal pain_intensity</t>
+  </si>
+  <si>
+    <t>abdominal pain_frequency</t>
+  </si>
+  <si>
+    <t>sports_intensity</t>
+  </si>
+  <si>
+    <t>sports_frequency</t>
   </si>
 </sst>
 </file>
@@ -327,10 +393,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -630,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30693C62-7765-4718-A49A-D4B418E20D91}">
-  <dimension ref="A1:BC52"/>
+  <dimension ref="A1:BC73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -747,7 +809,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>2</v>
@@ -761,7 +823,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -775,7 +837,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
@@ -789,7 +851,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>8</v>
@@ -803,7 +865,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -817,7 +879,7 @@
         <v>11</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>12</v>
@@ -831,7 +893,7 @@
         <v>13</v>
       </c>
       <c r="C11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>14</v>
@@ -900,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
@@ -914,7 +976,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>23</v>
@@ -928,7 +990,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -942,7 +1004,7 @@
         <v>26</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>27</v>
@@ -1196,7 +1258,7 @@
         <v>63</v>
       </c>
       <c r="C42" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.45">
@@ -1207,7 +1269,7 @@
         <v>62</v>
       </c>
       <c r="C43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.45">
@@ -1229,7 +1291,7 @@
         <v>60</v>
       </c>
       <c r="C45" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.45">
@@ -1240,7 +1302,7 @@
         <v>59</v>
       </c>
       <c r="C46" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.45">
@@ -1262,10 +1324,10 @@
         <v>57</v>
       </c>
       <c r="C48" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1273,10 +1335,10 @@
         <v>56</v>
       </c>
       <c r="C49" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1284,10 +1346,10 @@
         <v>55</v>
       </c>
       <c r="C50" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1295,11 +1357,260 @@
         <v>54</v>
       </c>
       <c r="C51" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="B52" s="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0</v>
+      </c>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0</v>
+      </c>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0</v>
+      </c>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0</v>
+      </c>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0</v>
+      </c>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0</v>
+      </c>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/resources/fuzzy_rules/nodes.xlsx
+++ b/resources/fuzzy_rules/nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fande\PycharmProjects\bio_ml_project\resources\fuzzy_rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/fuzzy_rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E8671F-80BC-4422-A729-07A507A07703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DB360-3499-2746-9486-639575FCB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -695,17 +692,17 @@
   <dimension ref="A1:BC73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.19921875" customWidth="1"/>
-    <col min="3" max="3" width="23.265625" customWidth="1"/>
-    <col min="4" max="4" width="38.19921875" customWidth="1"/>
+    <col min="2" max="2" width="38.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="38.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -716,7 +713,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -727,7 +724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -801,7 +798,7 @@
       <c r="BB4" s="2"/>
       <c r="BC4" s="2"/>
     </row>
-    <row r="5" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -815,7 +812,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -829,7 +826,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -843,7 +840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -857,7 +854,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -871,7 +868,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -885,7 +882,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -899,7 +896,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -910,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -921,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -932,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -943,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:55" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:55" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -954,7 +951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -968,7 +965,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -982,7 +979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -996,7 +993,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1010,7 +1007,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1024,7 +1021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1038,7 +1035,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1052,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1063,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1074,7 +1071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1085,7 +1082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1096,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1107,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1129,7 +1126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1140,7 +1137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1151,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1173,7 +1170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1184,7 +1181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1195,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1206,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1217,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1228,7 +1225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1250,7 +1247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1261,7 +1258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1272,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1283,7 +1280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1294,7 +1291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1316,7 +1313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1327,7 +1324,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1338,7 +1335,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1349,7 +1346,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1360,7 +1357,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1371,7 +1368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1383,7 +1380,7 @@
       </c>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1395,7 +1392,7 @@
       </c>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1407,7 +1404,7 @@
       </c>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1419,7 +1416,7 @@
       </c>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1431,7 +1428,7 @@
       </c>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1443,7 +1440,7 @@
       </c>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1454,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1465,7 +1462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1476,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1487,7 +1484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1498,7 +1495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1509,7 +1506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1521,7 +1518,7 @@
       </c>
       <c r="D65" s="3"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1533,7 +1530,7 @@
       </c>
       <c r="D66" s="3"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1545,7 +1542,7 @@
       </c>
       <c r="D67" s="3"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1557,7 +1554,7 @@
       </c>
       <c r="D68" s="3"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1568,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1579,7 +1576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1590,7 +1587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1601,7 +1598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>71</v>
       </c>

--- a/resources/fuzzy_rules/nodes.xlsx
+++ b/resources/fuzzy_rules/nodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/fuzzy_rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3DB360-3499-2746-9486-639575FCB0F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617E6B2-A1CA-194B-9D06-C1FAC771256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="21800" windowHeight="12980" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
+    <workbookView xWindow="9540" yWindow="500" windowWidth="26520" windowHeight="16700" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>age</t>
   </si>
@@ -206,21 +206,9 @@
     <t>rischio tiroideo</t>
   </si>
   <si>
-    <t>vita sregolata</t>
-  </si>
-  <si>
-    <t>consumo stimolanti</t>
-  </si>
-  <si>
-    <t>sofferenza addominale</t>
-  </si>
-  <si>
     <t>sofferenza gastrica</t>
   </si>
   <si>
-    <t>sofferenza respiratoria</t>
-  </si>
-  <si>
     <t>sofferenza tiroidea</t>
   </si>
   <si>
@@ -300,6 +288,78 @@
   </si>
   <si>
     <t>sports_frequency</t>
+  </si>
+  <si>
+    <t>smoke_intensity</t>
+  </si>
+  <si>
+    <t>smoke_frequency</t>
+  </si>
+  <si>
+    <t>coffee/tea_intensity</t>
+  </si>
+  <si>
+    <t>coffee/tea_frequency</t>
+  </si>
+  <si>
+    <t>Alcohol intake_frequency</t>
+  </si>
+  <si>
+    <t>Alcohol intake_intensity</t>
+  </si>
+  <si>
+    <t>Rischio CT</t>
+  </si>
+  <si>
+    <t>Rischio CG</t>
+  </si>
+  <si>
+    <t>Rischio TG</t>
+  </si>
+  <si>
+    <t>Rischio CT Top</t>
+  </si>
+  <si>
+    <t>Rischio CG Top</t>
+  </si>
+  <si>
+    <t>Rischio TG Top</t>
+  </si>
+  <si>
+    <t>rischio tiroideo count</t>
+  </si>
+  <si>
+    <t>rischio cardiaco count</t>
+  </si>
+  <si>
+    <t>rischio gastrico count</t>
+  </si>
+  <si>
+    <t>Rischio CT Top count</t>
+  </si>
+  <si>
+    <t>Rischio CG Top count</t>
+  </si>
+  <si>
+    <t>Rischio TG Top count</t>
+  </si>
+  <si>
+    <t>rischio tiroideo max</t>
+  </si>
+  <si>
+    <t>rischio cardiaco max</t>
+  </si>
+  <si>
+    <t>rischio gastrico max</t>
+  </si>
+  <si>
+    <t>Rischio CT Top max</t>
+  </si>
+  <si>
+    <t>Rischio CG Top max</t>
+  </si>
+  <si>
+    <t>Rischio TG Top max</t>
   </si>
 </sst>
 </file>
@@ -336,7 +396,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -359,11 +419,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -373,6 +444,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -689,10 +763,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30693C62-7765-4718-A49A-D4B418E20D91}">
-  <dimension ref="A1:BC73"/>
+  <dimension ref="A1:BC93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -710,7 +784,7 @@
         <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:55" x14ac:dyDescent="0.2">
@@ -729,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -740,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -1015,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="C21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>29</v>
@@ -1029,7 +1103,7 @@
         <v>30</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>31</v>
@@ -1043,7 +1117,7 @@
         <v>32</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>33</v>
@@ -1252,7 +1326,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C42" s="4">
         <v>2</v>
@@ -1263,7 +1337,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C43" s="4">
         <v>2</v>
@@ -1271,95 +1345,98 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C44" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C45" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C47" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>46</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>57</v>
+        <v>50</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>63</v>
       </c>
       <c r="C48" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>47</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="C49" s="4">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D49" s="3"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>48</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C50" s="4">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>49</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C51" s="4">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D51" s="3"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>67</v>
@@ -1367,10 +1444,11 @@
       <c r="C52" s="4">
         <v>0</v>
       </c>
+      <c r="D52" s="3"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>68</v>
@@ -1382,7 +1460,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>69</v>
@@ -1394,7 +1472,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>70</v>
@@ -1402,11 +1480,10 @@
       <c r="C55" s="4">
         <v>0</v>
       </c>
-      <c r="D55" s="3"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>71</v>
@@ -1414,11 +1491,10 @@
       <c r="C56" s="4">
         <v>0</v>
       </c>
-      <c r="D56" s="3"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>72</v>
@@ -1426,11 +1502,10 @@
       <c r="C57" s="4">
         <v>0</v>
       </c>
-      <c r="D57" s="3"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>73</v>
@@ -1438,11 +1513,10 @@
       <c r="C58" s="4">
         <v>0</v>
       </c>
-      <c r="D58" s="3"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>74</v>
@@ -1453,7 +1527,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>75</v>
@@ -1464,7 +1538,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>76</v>
@@ -1472,10 +1546,11 @@
       <c r="C61" s="4">
         <v>0</v>
       </c>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>77</v>
@@ -1483,10 +1558,11 @@
       <c r="C62" s="4">
         <v>0</v>
       </c>
+      <c r="D62" s="3"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>78</v>
@@ -1494,10 +1570,11 @@
       <c r="C63" s="4">
         <v>0</v>
       </c>
+      <c r="D63" s="3"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>79</v>
@@ -1505,10 +1582,11 @@
       <c r="C64" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>80</v>
@@ -1516,11 +1594,10 @@
       <c r="C65" s="4">
         <v>0</v>
       </c>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>81</v>
@@ -1528,11 +1605,10 @@
       <c r="C66" s="4">
         <v>0</v>
       </c>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>82</v>
@@ -1540,11 +1616,10 @@
       <c r="C67" s="4">
         <v>0</v>
       </c>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>83</v>
@@ -1552,11 +1627,10 @@
       <c r="C68" s="4">
         <v>0</v>
       </c>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>84</v>
@@ -1565,48 +1639,268 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>68</v>
-      </c>
-      <c r="B70" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>85</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>69</v>
-      </c>
-      <c r="B71" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>86</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>70</v>
-      </c>
-      <c r="B72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>87</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>71</v>
-      </c>
-      <c r="B73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="5" t="s">
         <v>88</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>76</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>77</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>78</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>79</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>80</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>82</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>83</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>84</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>85</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>86</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>87</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>88</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>89</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>90</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>91</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>92</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C89" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>93</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C90" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>94</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C91" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>95</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C92" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>96</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/resources/fuzzy_rules/nodes.xlsx
+++ b/resources/fuzzy_rules/nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mariolepore/PycharmProjects/bio_ml_project/resources/fuzzy_rules/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D617E6B2-A1CA-194B-9D06-C1FAC771256A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49138C7-8EBA-554D-BA8D-04CA685E9D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="500" windowWidth="26520" windowHeight="16700" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="26520" windowHeight="16700" xr2:uid="{1A6320DE-2C65-4FFF-87CF-8B006D14D2DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -20,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>age</t>
   </si>
@@ -360,6 +352,24 @@
   </si>
   <si>
     <t>Rischio TG Top max</t>
+  </si>
+  <si>
+    <t>rischio tiroideo min</t>
+  </si>
+  <si>
+    <t>rischio cardiaco min</t>
+  </si>
+  <si>
+    <t>rischio gastrico min</t>
+  </si>
+  <si>
+    <t>Rischio CT Top min</t>
+  </si>
+  <si>
+    <t>Rischio CG Top min</t>
+  </si>
+  <si>
+    <t>Rischio TG Top min</t>
   </si>
 </sst>
 </file>
@@ -763,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30693C62-7765-4718-A49A-D4B418E20D91}">
-  <dimension ref="A1:BC93"/>
+  <dimension ref="A1:BC99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1903,6 +1913,72 @@
         <v>3</v>
       </c>
     </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>97</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C94" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>98</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>99</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C96" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>100</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C97" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>101</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C98" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>102</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C99" s="4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
